--- a/output/Advanced_Higher_2008.xlsx
+++ b/output/Advanced_Higher_2008.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
